--- a/data/trans_camb/POLIPATOLOGIA_DISC-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_DISC-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,86; 14,02</t>
+          <t>7,03; 14,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,62; 11,85</t>
+          <t>5,77; 11,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,17; 30,77</t>
+          <t>19,89; 30,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,68; 16,27</t>
+          <t>10,79; 16,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,47; 21,2</t>
+          <t>14,73; 21,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,81; 12,94</t>
+          <t>9,07; 13,23</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,84; 20,0</t>
+          <t>12,88; 20,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,71; 12,06</t>
+          <t>6,6; 11,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,5; 14,72</t>
+          <t>8,64; 14,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,91; 29,94</t>
+          <t>22,32; 30,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,32; 24,94</t>
+          <t>17,5; 24,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,73; 26,95</t>
+          <t>20,8; 26,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,48; 24,26</t>
+          <t>18,64; 24,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,86; 17,64</t>
+          <t>13,02; 17,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,6; 20,12</t>
+          <t>15,53; 20,13</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,31; 15,67</t>
+          <t>8,14; 15,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,29; 9,49</t>
+          <t>4,6; 9,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,61; 20,09</t>
+          <t>12,49; 20,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,07; 23,85</t>
+          <t>15,11; 23,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,31; 21,08</t>
+          <t>11,96; 20,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,55; 27,67</t>
+          <t>20,59; 27,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,72; 18,51</t>
+          <t>12,83; 18,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,06; 14,22</t>
+          <t>9,15; 14,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,81; 22,8</t>
+          <t>17,62; 22,79</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,63; 12,39</t>
+          <t>7,96; 12,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,08; 13,47</t>
+          <t>7,21; 13,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,94; 25,34</t>
+          <t>14,97; 24,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,32; 25,76</t>
+          <t>19,52; 25,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,07; 28,36</t>
+          <t>19,27; 28,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,64; 30,29</t>
+          <t>21,79; 30,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,36; 18,47</t>
+          <t>14,39; 18,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,18; 20,13</t>
+          <t>14,29; 20,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,87; 26,32</t>
+          <t>19,97; 26,48</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,64; 18,55</t>
+          <t>8,81; 18,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,64; 17,76</t>
+          <t>8,88; 18,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,63; 11,58</t>
+          <t>5,52; 11,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>28,83; 41,61</t>
+          <t>28,13; 41,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>18,14; 29,19</t>
+          <t>18,3; 29,28</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>11,88; 21,04</t>
+          <t>12,41; 21,63</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>20,01; 28,55</t>
+          <t>20,27; 28,47</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>14,96; 21,95</t>
+          <t>14,45; 21,71</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>10,73; 16,24</t>
+          <t>10,61; 15,96</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>13,06; 22,13</t>
+          <t>12,74; 22,29</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>9,17; 17,55</t>
+          <t>9,35; 17,12</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>15,11; 22,88</t>
+          <t>14,94; 22,86</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>19,96; 29,68</t>
+          <t>19,1; 29,39</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>16,46; 27,26</t>
+          <t>16,67; 27,22</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>25,54; 34,24</t>
+          <t>25,47; 33,82</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>17,18; 24,52</t>
+          <t>17,49; 24,63</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>14,19; 20,83</t>
+          <t>14,2; 20,84</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>21,29; 27,23</t>
+          <t>21,42; 27,15</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>7,13; 11,85</t>
+          <t>7,12; 11,58</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>5,42; 9,95</t>
+          <t>5,61; 10,0</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>11,75; 17,7</t>
+          <t>11,89; 17,91</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>14,94; 21,07</t>
+          <t>15,09; 21,6</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>13,12; 19,13</t>
+          <t>13,38; 19,39</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>15,29; 31,28</t>
+          <t>15,77; 31,24</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>11,88; 15,78</t>
+          <t>11,71; 15,55</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>10,13; 13,62</t>
+          <t>10,23; 13,92</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>15,66; 23,59</t>
+          <t>15,58; 23,51</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>8,34; 13,16</t>
+          <t>8,3; 13,26</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>7,18; 11,27</t>
+          <t>7,28; 11,37</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>5,49; 9,25</t>
+          <t>5,55; 9,41</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>15,27; 20,98</t>
+          <t>15,38; 20,72</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>15,08; 20,49</t>
+          <t>14,96; 20,62</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>17,16; 22,6</t>
+          <t>16,88; 22,21</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>12,74; 16,28</t>
+          <t>12,59; 16,24</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>11,76; 15,19</t>
+          <t>11,8; 15,39</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>11,61; 15,25</t>
+          <t>11,67; 15,17</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>10,68; 13,01</t>
+          <t>10,75; 13,15</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>8,27; 10,28</t>
+          <t>8,39; 10,4</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>11,21; 13,55</t>
+          <t>11,17; 13,55</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>20,3; 22,96</t>
+          <t>20,38; 23,22</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>18,17; 21,11</t>
+          <t>18,0; 20,88</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>20,69; 24,24</t>
+          <t>20,53; 24,21</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>16,03; 17,92</t>
+          <t>15,86; 17,8</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>13,67; 15,4</t>
+          <t>13,68; 15,4</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>16,78; 18,89</t>
+          <t>16,74; 18,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/POLIPATOLOGIA_DISC-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_DISC-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,03; 14,36</t>
+          <t>7,06; 14,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,89; 30,59</t>
+          <t>20,37; 30,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,73; 21,2</t>
+          <t>14,6; 21,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,88; 20,4</t>
+          <t>13,16; 20,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,6; 11,66</t>
+          <t>6,78; 12,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -916,12 +916,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,32; 30,02</t>
+          <t>21,82; 29,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,5; 24,83</t>
+          <t>17,61; 24,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,64; 24,04</t>
+          <t>18,53; 24,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,02; 17,61</t>
+          <t>13,02; 17,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1117,12 +1117,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,14; 15,47</t>
+          <t>8,23; 15,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,6; 9,75</t>
+          <t>4,4; 9,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1132,12 +1132,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,11; 23,85</t>
+          <t>15,19; 24,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,96; 20,91</t>
+          <t>12,09; 21,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,83; 18,56</t>
+          <t>12,8; 18,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,15; 14,5</t>
+          <t>9,18; 14,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1333,12 +1333,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,96; 12,79</t>
+          <t>7,88; 12,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,21; 13,55</t>
+          <t>7,04; 13,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1348,12 +1348,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,52; 25,6</t>
+          <t>19,24; 25,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,27; 28,42</t>
+          <t>19,21; 28,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,39; 18,38</t>
+          <t>14,43; 18,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,29; 20,01</t>
+          <t>14,19; 19,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,81; 18,71</t>
+          <t>9,17; 19,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,88; 18,13</t>
+          <t>8,7; 17,74</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>28,13; 41,02</t>
+          <t>28,34; 41,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>18,3; 29,28</t>
+          <t>18,46; 29,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1579,12 +1579,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>20,27; 28,47</t>
+          <t>20,33; 28,82</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>14,45; 21,71</t>
+          <t>14,81; 22,05</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>12,74; 22,29</t>
+          <t>12,52; 22,1</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>9,35; 17,12</t>
+          <t>8,97; 16,84</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>19,1; 29,39</t>
+          <t>19,46; 29,56</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>16,67; 27,22</t>
+          <t>17,18; 27,24</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1795,12 +1795,12 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>17,49; 24,63</t>
+          <t>17,76; 24,39</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>14,2; 20,84</t>
+          <t>14,11; 20,93</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>7,12; 11,58</t>
+          <t>7,05; 11,65</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>5,61; 10,0</t>
+          <t>5,6; 10,13</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>15,09; 21,6</t>
+          <t>15,29; 21,43</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>13,38; 19,39</t>
+          <t>12,73; 18,97</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>11,71; 15,55</t>
+          <t>11,82; 15,9</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>10,23; 13,92</t>
+          <t>10,11; 13,85</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
@@ -2197,12 +2197,12 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>8,3; 13,26</t>
+          <t>8,46; 13,14</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>7,28; 11,37</t>
+          <t>7,41; 11,45</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -2212,12 +2212,12 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>15,38; 20,72</t>
+          <t>15,36; 21,02</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>14,96; 20,62</t>
+          <t>15,02; 20,5</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>12,59; 16,24</t>
+          <t>12,59; 16,31</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>11,8; 15,39</t>
+          <t>11,77; 15,27</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
@@ -2413,12 +2413,12 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>10,75; 13,15</t>
+          <t>10,69; 13,07</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>8,39; 10,4</t>
+          <t>8,37; 10,35</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
@@ -2428,12 +2428,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>20,38; 23,22</t>
+          <t>20,35; 23,11</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>18,0; 20,88</t>
+          <t>18,27; 21,1</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -2443,12 +2443,12 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>15,86; 17,8</t>
+          <t>15,91; 17,75</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>13,68; 15,4</t>
+          <t>13,7; 15,39</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">

--- a/data/trans_camb/POLIPATOLOGIA_DISC-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_DISC-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,06; 14,62</t>
+          <t>6,86; 14,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,77; 11,86</t>
+          <t>5,62; 11,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,37; 30,94</t>
+          <t>20,17; 30,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,79; 16,63</t>
+          <t>10,68; 16,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,6; 21,36</t>
+          <t>14,47; 21,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,07; 13,23</t>
+          <t>8,81; 12,94</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,16; 20,22</t>
+          <t>12,84; 20,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,78; 12,01</t>
+          <t>6,71; 12,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,64; 14,57</t>
+          <t>8,5; 14,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,82; 29,7</t>
+          <t>21,91; 29,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,61; 24,77</t>
+          <t>17,32; 24,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,8; 26,97</t>
+          <t>20,73; 26,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,53; 24,32</t>
+          <t>18,48; 24,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,02; 17,67</t>
+          <t>12,86; 17,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,53; 20,13</t>
+          <t>15,6; 20,12</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,23; 15,57</t>
+          <t>8,31; 15,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,4; 9,84</t>
+          <t>4,29; 9,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,49; 20,07</t>
+          <t>12,61; 20,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,19; 24,18</t>
+          <t>15,07; 23,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,09; 21,27</t>
+          <t>12,31; 21,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,59; 27,47</t>
+          <t>20,55; 27,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,8; 18,52</t>
+          <t>12,72; 18,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,18; 14,14</t>
+          <t>9,06; 14,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,62; 22,79</t>
+          <t>17,81; 22,8</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,88; 12,59</t>
+          <t>7,63; 12,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,04; 13,5</t>
+          <t>7,08; 13,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,97; 24,81</t>
+          <t>14,94; 25,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,24; 25,52</t>
+          <t>19,32; 25,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,21; 28,69</t>
+          <t>19,07; 28,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,79; 30,25</t>
+          <t>21,64; 30,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,43; 18,49</t>
+          <t>14,36; 18,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,19; 19,77</t>
+          <t>14,18; 20,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,97; 26,48</t>
+          <t>19,87; 26,32</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>9,17; 19,28</t>
+          <t>8,64; 18,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,7; 17,74</t>
+          <t>8,64; 17,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,52; 11,96</t>
+          <t>5,63; 11,58</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>28,34; 41,64</t>
+          <t>28,83; 41,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>18,46; 29,37</t>
+          <t>18,14; 29,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,41; 21,63</t>
+          <t>11,88; 21,04</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>20,33; 28,82</t>
+          <t>20,01; 28,55</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>14,81; 22,05</t>
+          <t>14,96; 21,95</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>10,61; 15,96</t>
+          <t>10,73; 16,24</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>12,52; 22,1</t>
+          <t>13,06; 22,13</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>8,97; 16,84</t>
+          <t>9,17; 17,55</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>14,94; 22,86</t>
+          <t>15,11; 22,88</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>19,46; 29,56</t>
+          <t>19,96; 29,68</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>17,18; 27,24</t>
+          <t>16,46; 27,26</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>25,47; 33,82</t>
+          <t>25,54; 34,24</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>17,76; 24,39</t>
+          <t>17,18; 24,52</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>14,11; 20,93</t>
+          <t>14,19; 20,83</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>21,42; 27,15</t>
+          <t>21,29; 27,23</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>7,05; 11,65</t>
+          <t>7,13; 11,85</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>5,6; 10,13</t>
+          <t>5,42; 9,95</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>11,89; 17,91</t>
+          <t>11,75; 17,7</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>15,29; 21,43</t>
+          <t>14,94; 21,07</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>12,73; 18,97</t>
+          <t>13,12; 19,13</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>15,77; 31,24</t>
+          <t>15,29; 31,28</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>11,82; 15,9</t>
+          <t>11,88; 15,78</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>10,11; 13,85</t>
+          <t>10,13; 13,62</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>15,58; 23,51</t>
+          <t>15,66; 23,59</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>8,46; 13,14</t>
+          <t>8,34; 13,16</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>7,41; 11,45</t>
+          <t>7,18; 11,27</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>5,55; 9,41</t>
+          <t>5,49; 9,25</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>15,36; 21,02</t>
+          <t>15,27; 20,98</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>15,02; 20,5</t>
+          <t>15,08; 20,49</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>16,88; 22,21</t>
+          <t>17,16; 22,6</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>12,59; 16,31</t>
+          <t>12,74; 16,28</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>11,77; 15,27</t>
+          <t>11,76; 15,19</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>11,67; 15,17</t>
+          <t>11,61; 15,25</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>10,69; 13,07</t>
+          <t>10,68; 13,01</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>8,37; 10,35</t>
+          <t>8,27; 10,28</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>11,17; 13,55</t>
+          <t>11,21; 13,55</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>20,35; 23,11</t>
+          <t>20,3; 22,96</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>18,27; 21,1</t>
+          <t>18,17; 21,11</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>20,53; 24,21</t>
+          <t>20,69; 24,24</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>15,91; 17,75</t>
+          <t>16,03; 17,92</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>13,7; 15,39</t>
+          <t>13,67; 15,4</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>16,74; 18,79</t>
+          <t>16,78; 18,89</t>
         </is>
       </c>
     </row>
